--- a/excel/Msg_subject_And_content.xlsx
+++ b/excel/Msg_subject_And_content.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sample_Webauto\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,14 +23,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMS제목을 입력 합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국만세가나다라마바사아자차카타파하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하대한민국만세가나다라마바사아자차카타파하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +165,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +200,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +382,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:J1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>